--- a/2014_2015/DS_07/ApplicationNumerique.xlsx
+++ b/2014_2015/DS_07/ApplicationNumerique.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>µu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = </t>
   </si>
 </sst>
 </file>
@@ -378,13 +381,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -454,6 +460,27 @@
       </c>
       <c r="B8">
         <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>1/(B2*B4*B5*B6-B2*B4*B8)</f>
+        <v>7.2057594037927936E+16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B2*B10*B4*B5*B6/(1+B2*B10*B4*B8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B7/(1+B2*B10*B4*B8)</f>
+        <v>5.2812426356173285E-17</v>
       </c>
     </row>
   </sheetData>
